--- a/テーブル定義書_ver2.0.xlsx
+++ b/テーブル定義書_ver2.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SpringBootKadai\SpringBootKadai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E9A9A9-6458-4BD5-86E5-8C201AB010C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00CA05-C2CA-404A-B403-46F5EE797DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="753" xr2:uid="{45B78251-99BE-4B23-848E-20B81A8B859A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="149">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -461,16 +461,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>CUST0001の形式で格納</t>
-    <rPh sb="9" eb="11">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>varchar(255)</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -490,13 +480,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>部署名</t>
-    <rPh sb="0" eb="3">
-      <t>ブショメイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -543,9 +526,6 @@
     <t>c_update_name</t>
   </si>
   <si>
-    <t>c_delete_day</t>
-  </si>
-  <si>
     <t>e_id</t>
   </si>
   <si>
@@ -686,6 +666,46 @@
   </si>
   <si>
     <t>hrc-db,M_USER</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CUS0001の形式で格納</t>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>部署名</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>d_name</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2025/6/25</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1441,6 +1461,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1505,15 +1534,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1857,7 +1877,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1894,7 +1914,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -1906,7 +1926,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -1914,23 +1934,23 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="70"/>
+      <c r="B5" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="21">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -1976,109 +1996,109 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="51"/>
+      <c r="C4" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="54"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -2116,7 +2136,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>70</v>
@@ -2128,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2139,7 +2159,7 @@
         <v>58</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>71</v>
@@ -2162,7 +2182,7 @@
         <v>59</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>22</v>
@@ -2208,13 +2228,13 @@
         <v>61</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>74</v>
@@ -2231,10 +2251,10 @@
         <v>62</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>23</v>
@@ -2254,7 +2274,7 @@
         <v>63</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>73</v>
@@ -2277,7 +2297,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>72</v>
@@ -2298,7 +2318,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>72</v>
@@ -2319,7 +2339,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>70</v>
@@ -2342,7 +2362,7 @@
         <v>67</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>70</v>
@@ -2363,7 +2383,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>24</v>
@@ -2411,10 +2431,10 @@
       <c r="B29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="63"/>
+      <c r="C29" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="66"/>
       <c r="E29" s="22" t="s">
         <v>23</v>
       </c>
@@ -2455,12 +2475,12 @@
       <c r="C33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="65"/>
+      <c r="D33" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
@@ -2495,16 +2515,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>79</v>
@@ -2557,10 +2577,10 @@
         <v>49</v>
       </c>
       <c r="D43" s="42"/>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="67"/>
+      <c r="F43" s="70"/>
       <c r="G43" s="40" t="s">
         <v>51</v>
       </c>
@@ -2600,7 +2620,9 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2618,109 +2640,111 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="51"/>
+      <c r="C4" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="54"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -2758,7 +2782,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>70</v>
@@ -2770,7 +2794,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2784,7 +2808,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>23</v>
@@ -2807,7 +2831,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>23</v>
@@ -2827,10 +2851,10 @@
         <v>62</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>23</v>
@@ -2850,7 +2874,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>73</v>
@@ -2896,7 +2920,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>72</v>
@@ -2919,7 +2943,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>72</v>
@@ -2940,7 +2964,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>70</v>
@@ -2963,7 +2987,7 @@
         <v>67</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>70</v>
@@ -2984,7 +3008,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>24</v>
@@ -3032,10 +3056,10 @@
       <c r="B28" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="63"/>
+      <c r="C28" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="66"/>
       <c r="E28" s="22" t="s">
         <v>23</v>
       </c>
@@ -3076,12 +3100,12 @@
       <c r="C32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="65"/>
+      <c r="D32" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
@@ -3155,10 +3179,10 @@
         <v>49</v>
       </c>
       <c r="D41" s="42"/>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="67"/>
+      <c r="F41" s="70"/>
       <c r="G41" s="40" t="s">
         <v>51</v>
       </c>
@@ -3196,9 +3220,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3216,113 +3242,115 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="51"/>
+      <c r="C4" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="54"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="51"/>
+      <c r="C5" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="54"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -3356,10 +3384,10 @@
         <v>61</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>77</v>
@@ -3368,193 +3396,214 @@
         <v>14</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="25" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="21">
+        <v>1</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="66"/>
+      <c r="E20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
+      <c r="F20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="34" t="s">
+      <c r="B23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="21">
+        <v>1</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="21">
+      <c r="D27" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
+      <c r="B30" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="21">
-        <v>1</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="39" t="s">
+      <c r="B33" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C33" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="66" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="40" t="s">
+      <c r="F33" s="70"/>
+      <c r="G33" s="40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3562,9 +3611,9 @@
   <mergeCells count="15">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -3611,113 +3660,113 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="51"/>
+      <c r="C4" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="54"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="51"/>
+      <c r="C5" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="54"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -3748,13 +3797,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>21</v>
@@ -3763,7 +3812,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -3771,10 +3820,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>71</v>
@@ -3794,13 +3843,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>23</v>
@@ -3817,10 +3866,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>72</v>
@@ -3832,7 +3881,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
@@ -3868,10 +3917,10 @@
       <c r="B21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="63"/>
+      <c r="C21" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="66"/>
       <c r="E21" s="22" t="s">
         <v>23</v>
       </c>
@@ -3912,12 +3961,12 @@
       <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="D25" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
@@ -3991,10 +4040,10 @@
         <v>49</v>
       </c>
       <c r="D34" s="42"/>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="40" t="s">
         <v>51</v>
       </c>
@@ -4028,6 +4077,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e">
@@ -4046,7 +4104,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AAD216DA352B741994C129B4A27BD06" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3780535da2de8226a8ca26e9aa694ed4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e" xmlns:ns3="f99b391e-cf9b-4058-b242-d902c48d45da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96a6ead93e0765d318b1b2bb51f591e7" ns2:_="" ns3:_="">
     <xsd:import namespace="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e"/>
@@ -4281,16 +4339,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E60652-0765-4FD9-B6BD-C6B4B0A81368}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE0B28E-9F16-41D6-98F8-8D06B94F52A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="9bff404e-ad2f-4c63-b8b4-de3fd76a4c4f"/>
@@ -4309,7 +4366,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCA1F68-18B0-46D7-9ECC-6B2ED35FC39D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4326,12 +4383,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E60652-0765-4FD9-B6BD-C6B4B0A81368}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/テーブル定義書_ver2.0.xlsx
+++ b/テーブル定義書_ver2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SpringBootKadai\SpringBootKadai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00CA05-C2CA-404A-B403-46F5EE797DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF9A87-B52F-4DF8-9AC8-5EDD3ACE1E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="753" xr2:uid="{45B78251-99BE-4B23-848E-20B81A8B859A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="753" activeTab="4" xr2:uid="{45B78251-99BE-4B23-848E-20B81A8B859A}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -1470,24 +1470,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1534,6 +1516,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1876,7 +1876,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1996,109 +1996,109 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -2431,10 +2431,10 @@
       <c r="B29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="66"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="22" t="s">
         <v>23</v>
       </c>
@@ -2475,12 +2475,12 @@
       <c r="C33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
@@ -2577,31 +2577,31 @@
         <v>49</v>
       </c>
       <c r="D43" s="42"/>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="70"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="40" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,111 +2640,111 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -3056,10 +3056,10 @@
       <c r="B28" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="66"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="22" t="s">
         <v>23</v>
       </c>
@@ -3100,12 +3100,12 @@
       <c r="C32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
@@ -3179,31 +3179,31 @@
         <v>49</v>
       </c>
       <c r="D41" s="42"/>
-      <c r="E41" s="69" t="s">
+      <c r="E41" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="70"/>
+      <c r="F41" s="64"/>
       <c r="G41" s="40" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3242,111 +3242,111 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -3476,10 +3476,10 @@
       <c r="B20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="66"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="22" t="s">
         <v>23</v>
       </c>
@@ -3520,12 +3520,12 @@
       <c r="C24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
@@ -3599,31 +3599,31 @@
         <v>49</v>
       </c>
       <c r="D33" s="42"/>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="70"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="40" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3642,7 +3642,9 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3660,109 +3662,109 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -3803,7 +3805,7 @@
         <v>134</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>21</v>
@@ -3917,10 +3919,10 @@
       <c r="B21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="22" t="s">
         <v>23</v>
       </c>
@@ -3961,12 +3963,12 @@
       <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
@@ -4040,16 +4042,22 @@
         <v>49</v>
       </c>
       <c r="D34" s="42"/>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="70"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="40" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E34:F34"/>
@@ -4059,12 +4067,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4077,34 +4079,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f99b391e-cf9b-4058-b242-d902c48d45da" xsi:nil="true"/>
-    <SharedWithUsers xmlns="f99b391e-cf9b-4058-b242-d902c48d45da">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AAD216DA352B741994C129B4A27BD06" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3780535da2de8226a8ca26e9aa694ed4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e" xmlns:ns3="f99b391e-cf9b-4058-b242-d902c48d45da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96a6ead93e0765d318b1b2bb51f591e7" ns2:_="" ns3:_="">
     <xsd:import namespace="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e"/>
@@ -4339,10 +4313,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f99b391e-cf9b-4058-b242-d902c48d45da" xsi:nil="true"/>
+    <SharedWithUsers xmlns="f99b391e-cf9b-4058-b242-d902c48d45da">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E60652-0765-4FD9-B6BD-C6B4B0A81368}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCA1F68-18B0-46D7-9ECC-6B2ED35FC39D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e"/>
+    <ds:schemaRef ds:uri="f99b391e-cf9b-4058-b242-d902c48d45da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4367,20 +4380,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCA1F68-18B0-46D7-9ECC-6B2ED35FC39D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E60652-0765-4FD9-B6BD-C6B4B0A81368}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e"/>
-    <ds:schemaRef ds:uri="f99b391e-cf9b-4058-b242-d902c48d45da"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/テーブル定義書_ver2.0.xlsx
+++ b/テーブル定義書_ver2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SpringBootKadai\SpringBootKadai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF9A87-B52F-4DF8-9AC8-5EDD3ACE1E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E2F3E-CAE6-4805-9969-E154BD86927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="753" activeTab="4" xr2:uid="{45B78251-99BE-4B23-848E-20B81A8B859A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="753" xr2:uid="{45B78251-99BE-4B23-848E-20B81A8B859A}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="148">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -638,16 +638,6 @@
   </si>
   <si>
     <t>create_day</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>AD0001の形式で格納</t>
-    <rPh sb="6" eb="8">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクノウ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1470,6 +1460,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1516,24 +1524,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1876,7 +1866,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1935,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>122</v>
@@ -1950,7 +1940,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -1978,7 +1968,9 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1996,109 +1988,109 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="55"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -2342,7 +2334,7 @@
         <v>117</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>23</v>
@@ -2365,7 +2357,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="30" t="s">
@@ -2431,10 +2423,10 @@
       <c r="B29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="22" t="s">
         <v>23</v>
       </c>
@@ -2475,12 +2467,12 @@
       <c r="C33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
@@ -2577,31 +2569,31 @@
         <v>49</v>
       </c>
       <c r="D43" s="42"/>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="64"/>
+      <c r="F43" s="70"/>
       <c r="G43" s="40" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2621,7 +2613,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2640,111 +2632,111 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="70"/>
+      <c r="F4" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="55"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -2794,7 +2786,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2967,7 +2959,7 @@
         <v>108</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>23</v>
@@ -2990,7 +2982,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="30" t="s">
@@ -3008,7 +3000,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>24</v>
@@ -3056,10 +3048,10 @@
       <c r="B28" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="60"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="22" t="s">
         <v>23</v>
       </c>
@@ -3100,12 +3092,12 @@
       <c r="C32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
@@ -3179,31 +3171,31 @@
         <v>49</v>
       </c>
       <c r="D41" s="42"/>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="64"/>
+      <c r="F41" s="70"/>
       <c r="G41" s="40" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3242,111 +3234,111 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="70"/>
+      <c r="F4" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="55"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -3404,16 +3396,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>146</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>14</v>
@@ -3476,10 +3468,10 @@
       <c r="B20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="22" t="s">
         <v>23</v>
       </c>
@@ -3520,12 +3512,12 @@
       <c r="C24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
@@ -3599,31 +3591,31 @@
         <v>49</v>
       </c>
       <c r="D33" s="42"/>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="70"/>
       <c r="G33" s="40" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3642,8 +3634,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3662,109 +3654,111 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="55"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
@@ -3814,7 +3808,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -3883,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
@@ -3919,10 +3913,10 @@
       <c r="B21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="22" t="s">
         <v>23</v>
       </c>
@@ -3963,12 +3957,12 @@
       <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
@@ -4042,22 +4036,16 @@
         <v>49</v>
       </c>
       <c r="D34" s="42"/>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="64"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="40" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="E34:F34"/>
@@ -4067,6 +4055,12 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4079,6 +4073,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f99b391e-cf9b-4058-b242-d902c48d45da" xsi:nil="true"/>
+    <SharedWithUsers xmlns="f99b391e-cf9b-4058-b242-d902c48d45da">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AAD216DA352B741994C129B4A27BD06" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3780535da2de8226a8ca26e9aa694ed4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e" xmlns:ns3="f99b391e-cf9b-4058-b242-d902c48d45da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96a6ead93e0765d318b1b2bb51f591e7" ns2:_="" ns3:_="">
     <xsd:import namespace="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e"/>
@@ -4313,49 +4335,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f99b391e-cf9b-4058-b242-d902c48d45da" xsi:nil="true"/>
-    <SharedWithUsers xmlns="f99b391e-cf9b-4058-b242-d902c48d45da">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCA1F68-18B0-46D7-9ECC-6B2ED35FC39D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E60652-0765-4FD9-B6BD-C6B4B0A81368}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e"/>
-    <ds:schemaRef ds:uri="f99b391e-cf9b-4058-b242-d902c48d45da"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4380,9 +4363,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E60652-0765-4FD9-B6BD-C6B4B0A81368}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCA1F68-18B0-46D7-9ECC-6B2ED35FC39D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c17c72f-aacd-4dc2-8c50-8336ab1e9e7e"/>
+    <ds:schemaRef ds:uri="f99b391e-cf9b-4058-b242-d902c48d45da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>